--- a/test_raw.xlsx
+++ b/test_raw.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomilov-iv\Desktop\BrandPol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3905EA37-3241-4667-8F82-3545BE432770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841661FB-4EB2-4F67-9B7D-DF20B6E72F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="155">
   <si>
     <t>Запрос</t>
   </si>
@@ -160,6 +161,345 @@
   </si>
   <si>
     <t>арбуз 3001000 мг</t>
+  </si>
+  <si>
+    <t>good 8</t>
+  </si>
+  <si>
+    <t>good 9</t>
+  </si>
+  <si>
+    <t>good 10</t>
+  </si>
+  <si>
+    <t>блузка синяя</t>
+  </si>
+  <si>
+    <t>блузка blue</t>
+  </si>
+  <si>
+    <t>блузка желтая</t>
+  </si>
+  <si>
+    <t>блузка brown</t>
+  </si>
+  <si>
+    <t>блузка арахис</t>
+  </si>
+  <si>
+    <t>good 11</t>
+  </si>
+  <si>
+    <t>good 12</t>
+  </si>
+  <si>
+    <t>душевая кабина 90см на 44см</t>
+  </si>
+  <si>
+    <t>душевая кабина 90см х 90см х 44 см</t>
+  </si>
+  <si>
+    <t>душевая кабина 90см х 90см х 24 см</t>
+  </si>
+  <si>
+    <t>душевая кабина 90см на 24см</t>
+  </si>
+  <si>
+    <t>good 13</t>
+  </si>
+  <si>
+    <t>good 14</t>
+  </si>
+  <si>
+    <t>полотенце 900мм</t>
+  </si>
+  <si>
+    <t>палка 200см</t>
+  </si>
+  <si>
+    <t>полотенце 901мм</t>
+  </si>
+  <si>
+    <t>палка 2001мм</t>
+  </si>
+  <si>
+    <t>душевая кабина 90 на 44 см</t>
+  </si>
+  <si>
+    <t>душевая кабина 90х 90 х 44 см</t>
+  </si>
+  <si>
+    <t>палка 12.2 см</t>
+  </si>
+  <si>
+    <t>палка 13.4 см</t>
+  </si>
+  <si>
+    <t>вес 12000000 мкг</t>
+  </si>
+  <si>
+    <t>вес 12000000 микрограмм</t>
+  </si>
+  <si>
+    <t>вес 12000000 µg</t>
+  </si>
+  <si>
+    <t>вес 12000000 microgram</t>
+  </si>
+  <si>
+    <t>вес 12000 мг</t>
+  </si>
+  <si>
+    <t>вес 12000 миллиграмм</t>
+  </si>
+  <si>
+    <t>вес 12000 mg</t>
+  </si>
+  <si>
+    <t>вес 12000 milligram</t>
+  </si>
+  <si>
+    <t>вес 12г</t>
+  </si>
+  <si>
+    <t>вес 12гр</t>
+  </si>
+  <si>
+    <t>вес 12g</t>
+  </si>
+  <si>
+    <t>вес 12gram</t>
+  </si>
+  <si>
+    <t>вес 0.012 кг</t>
+  </si>
+  <si>
+    <t>вес 0.012 килограмм</t>
+  </si>
+  <si>
+    <t>вес 0.012 kg</t>
+  </si>
+  <si>
+    <t>вес 0.012 kilogram</t>
+  </si>
+  <si>
+    <t>вес 12000001 мкг</t>
+  </si>
+  <si>
+    <t>вес 12001 мг</t>
+  </si>
+  <si>
+    <t>вес 12.1гр</t>
+  </si>
+  <si>
+    <t>вес 0.0121 кг</t>
+  </si>
+  <si>
+    <t>объем 120мл</t>
+  </si>
+  <si>
+    <t>объем 120 миллилитр</t>
+  </si>
+  <si>
+    <t>объем 120ml</t>
+  </si>
+  <si>
+    <t>объем 120 milliliter</t>
+  </si>
+  <si>
+    <t>объем 0.12 л</t>
+  </si>
+  <si>
+    <t>объем 0.12 литр</t>
+  </si>
+  <si>
+    <t>объем 0.12 liter</t>
+  </si>
+  <si>
+    <t>объем 0.12 l</t>
+  </si>
+  <si>
+    <t>объем 120.1мл</t>
+  </si>
+  <si>
+    <t>объем 0.1201л</t>
+  </si>
+  <si>
+    <t>емкость 1024 мб</t>
+  </si>
+  <si>
+    <t>емкость 1024 mb</t>
+  </si>
+  <si>
+    <t>емкость 1024 megabite</t>
+  </si>
+  <si>
+    <t>емкость 1024 мегабайт</t>
+  </si>
+  <si>
+    <t>емкость 1024000 кб</t>
+  </si>
+  <si>
+    <t>емкость 1024000 kb</t>
+  </si>
+  <si>
+    <t>емкость 1024000 kilobite</t>
+  </si>
+  <si>
+    <t>емкость 1024000 килобайт</t>
+  </si>
+  <si>
+    <t>емкость 1.024гб</t>
+  </si>
+  <si>
+    <t>емкость 1.024gb</t>
+  </si>
+  <si>
+    <t>емкость 1.024 gigabite</t>
+  </si>
+  <si>
+    <t>емкость 1.024 гигабайт</t>
+  </si>
+  <si>
+    <t>емкость 0.001024 тб</t>
+  </si>
+  <si>
+    <t>емкость 0.001024 tb</t>
+  </si>
+  <si>
+    <t>емкость 0.001024 terabite</t>
+  </si>
+  <si>
+    <t>емкость 0.001024 терабайт</t>
+  </si>
+  <si>
+    <t>емкость 1025мб</t>
+  </si>
+  <si>
+    <t>емкость 1024001кб</t>
+  </si>
+  <si>
+    <t>емкость 1.0241гб</t>
+  </si>
+  <si>
+    <t>емкость 0.001124 тб</t>
+  </si>
+  <si>
+    <t>длина 99 см</t>
+  </si>
+  <si>
+    <t>длина 99 сантиметр</t>
+  </si>
+  <si>
+    <t>длина 99 centimeter</t>
+  </si>
+  <si>
+    <t>длина 99 cm</t>
+  </si>
+  <si>
+    <t>длина 990мм</t>
+  </si>
+  <si>
+    <t>длина 990 миллиметр</t>
+  </si>
+  <si>
+    <t>длина 990mm</t>
+  </si>
+  <si>
+    <t>длина 990 millimeter</t>
+  </si>
+  <si>
+    <t>длина 0.99метр</t>
+  </si>
+  <si>
+    <t>длина 0.99м</t>
+  </si>
+  <si>
+    <t>длина 0.99m</t>
+  </si>
+  <si>
+    <t>длина 0.99 meter</t>
+  </si>
+  <si>
+    <t>длина 0.00099 км</t>
+  </si>
+  <si>
+    <t>длина 0.00099 километр</t>
+  </si>
+  <si>
+    <t>длина 0.00099 km</t>
+  </si>
+  <si>
+    <t>длина 0.00099 kilometer</t>
+  </si>
+  <si>
+    <t>длина 99.9см</t>
+  </si>
+  <si>
+    <t>длина 991мм</t>
+  </si>
+  <si>
+    <t>длина 0.991м</t>
+  </si>
+  <si>
+    <t>длина 0.000991км</t>
+  </si>
+  <si>
+    <t>размер 120мм на 140мм</t>
+  </si>
+  <si>
+    <t>размер 121мм на 140мм</t>
+  </si>
+  <si>
+    <t>размер 12 х 14см</t>
+  </si>
+  <si>
+    <t>размер 0.12 на 0.14м</t>
+  </si>
+  <si>
+    <t>размер 15 x 15см</t>
+  </si>
+  <si>
+    <t>размер 150мм х 150мм</t>
+  </si>
+  <si>
+    <t>размер 0.15м на 0.15м</t>
+  </si>
+  <si>
+    <t>размер 15.1см на 15см</t>
+  </si>
+  <si>
+    <t>товар 10шт</t>
+  </si>
+  <si>
+    <t>товар №10</t>
+  </si>
+  <si>
+    <t>товар х10</t>
+  </si>
+  <si>
+    <t>товар 11 штук</t>
+  </si>
+  <si>
+    <t>аспирин 1%</t>
+  </si>
+  <si>
+    <t>аспирин 10мг\мл</t>
+  </si>
+  <si>
+    <t>аспирин 0.02г\2мл</t>
+  </si>
+  <si>
+    <t>аспирин 0.02г/2мл</t>
+  </si>
+  <si>
+    <t>сапоги 42 размер</t>
+  </si>
+  <si>
+    <t>сапоги 42р</t>
+  </si>
+  <si>
+    <t>сапоги 43р.</t>
   </si>
 </sst>
 </file>
@@ -526,10 +866,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +1007,7 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -675,10 +1015,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -686,10 +1026,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -700,7 +1040,7 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -708,10 +1048,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -719,10 +1059,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -733,40 +1073,40 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -774,13 +1114,915 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>92</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>95</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>97</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" t="s">
+        <v>98</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" t="s">
+        <v>99</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
+        <v>100</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" t="s">
+        <v>101</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" t="s">
+        <v>102</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" t="s">
+        <v>104</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" t="s">
+        <v>108</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" t="s">
+        <v>110</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" t="s">
+        <v>111</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" t="s">
+        <v>112</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" t="s">
+        <v>113</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" t="s">
+        <v>114</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" t="s">
+        <v>115</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>39</v>
       </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
+      <c r="B62" t="s">
+        <v>116</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" t="s">
+        <v>117</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" t="s">
+        <v>118</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" t="s">
+        <v>119</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" t="s">
+        <v>120</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" t="s">
+        <v>121</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" t="s">
+        <v>122</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" t="s">
+        <v>123</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" t="s">
+        <v>125</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>39</v>
+      </c>
+      <c r="B71" t="s">
+        <v>126</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" t="s">
+        <v>124</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" t="s">
+        <v>127</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" t="s">
+        <v>128</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" t="s">
+        <v>129</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" t="s">
+        <v>130</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" t="s">
+        <v>131</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" t="s">
+        <v>132</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" t="s">
+        <v>133</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" t="s">
+        <v>134</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" t="s">
+        <v>135</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>42</v>
+      </c>
+      <c r="B82" t="s">
+        <v>136</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>42</v>
+      </c>
+      <c r="B83" t="s">
+        <v>138</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>42</v>
+      </c>
+      <c r="B84" t="s">
+        <v>139</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>42</v>
+      </c>
+      <c r="B85" t="s">
+        <v>137</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86" t="s">
+        <v>140</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87" t="s">
+        <v>141</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88" t="s">
+        <v>142</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89" t="s">
+        <v>143</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>44</v>
+      </c>
+      <c r="B90" t="s">
+        <v>144</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>44</v>
+      </c>
+      <c r="B91" t="s">
+        <v>145</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>44</v>
+      </c>
+      <c r="B92" t="s">
+        <v>146</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>44</v>
+      </c>
+      <c r="B93" t="s">
+        <v>147</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>50</v>
+      </c>
+      <c r="B94" t="s">
+        <v>150</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>50</v>
+      </c>
+      <c r="B95" t="s">
+        <v>151</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>50</v>
+      </c>
+      <c r="B96" t="s">
+        <v>148</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>50</v>
+      </c>
+      <c r="B97" t="s">
+        <v>149</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>51</v>
+      </c>
+      <c r="B98" t="s">
+        <v>152</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>51</v>
+      </c>
+      <c r="B99" t="s">
+        <v>153</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>51</v>
+      </c>
+      <c r="B100" t="s">
+        <v>154</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -793,5 +2035,356 @@
     <hyperlink ref="C7" r:id="rId6" xr:uid="{8C4EA259-E753-4708-A6EC-414726470BE3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97311AFE-6134-40E0-A966-A6F8E9B86F87}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>